--- a/src/test/resources/brandsData.xlsx
+++ b/src/test/resources/brandsData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adobe Work\API-Testing\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adobe Work\New folder\API-testing-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43F2208-C6DA-4D15-A749-0EA4B1D24F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754D914-BDAA-471E-BB2E-8CEDE15E6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{61EF66B0-582B-4C5A-818C-0597B9B3C65F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="298">
   <si>
     <t>brand_names</t>
   </si>
@@ -645,6 +645,294 @@
   </si>
   <si>
     <t>goodsamrewardscreditcard</t>
+  </si>
+  <si>
+    <t>;release=r3</t>
+  </si>
+  <si>
+    <t>/transaction_and_statement/transaction_detail_page/transaction_detail_page;release=r3</t>
+  </si>
+  <si>
+    <t>/transaction_and_statement/statement_viewer_page/statement_viewer_page;release=r3</t>
+  </si>
+  <si>
+    <t>/secure_message_center/secure_message_center_landing_page/secure_message_center_landing_page;release=r3</t>
+  </si>
+  <si>
+    <t>/secure_message_center/secure_message_center_message_detail_page/secure_message_center_message_detail_page;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/secondary_rewards_benefits/secondary_rewards_benefits;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/rewards_success_dialog/rewards_success_dialog;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/rewards_program_detail_page/rewards_program_detail_page;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/rewards_direct_deposit_page/rewards_direct_deposit_page;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/reward_detail_page/reward_detail_page;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/recent_reward_activity_page/recent_reward_activity_page;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/primary_rewards_benefits/primary_rewards_benefits;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/bread_cashback_benefits/bread_cashback_benefits;release=r3</t>
+  </si>
+  <si>
+    <t>/rewards/american_express_benefits/american_express_benefits;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/schedule_payment_update_screen/schedule_payment_update_screen;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/date_picker_screen/date_picker_screen;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/billpay_terms_conditions_dialog/billpay_terms_conditions_dialog;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/billpay_payment_info_page/billpay_payment_info_page;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/billpay_confirmation_learn_more_dialog2/billpay_confirmation_learn_more_dialog2;release=r3</t>
+  </si>
+  <si>
+    <t>/payments/billpay_confirmation_learn_more_dialog1/billpay_confirmation_learn_more_dialog1;release=r3</t>
+  </si>
+  <si>
+    <t>Str1</t>
+  </si>
+  <si>
+    <t>Str2</t>
+  </si>
+  <si>
+    <t>Str3</t>
+  </si>
+  <si>
+    <t>Str4</t>
+  </si>
+  <si>
+    <t>Str5</t>
+  </si>
+  <si>
+    <t>Str6</t>
+  </si>
+  <si>
+    <t>Str7</t>
+  </si>
+  <si>
+    <t>Str8</t>
+  </si>
+  <si>
+    <t>Str9</t>
+  </si>
+  <si>
+    <t>Str10</t>
+  </si>
+  <si>
+    <t>Str11</t>
+  </si>
+  <si>
+    <t>Str12</t>
+  </si>
+  <si>
+    <t>Str13</t>
+  </si>
+  <si>
+    <t>Str14</t>
+  </si>
+  <si>
+    <t>Str15</t>
+  </si>
+  <si>
+    <t>Str16</t>
+  </si>
+  <si>
+    <t>Str17</t>
+  </si>
+  <si>
+    <t>Str18</t>
+  </si>
+  <si>
+    <t>Str19</t>
+  </si>
+  <si>
+    <t>Str20</t>
+  </si>
+  <si>
+    <t>/paperless/verification_edit_email/verification_edit_email;release=r3</t>
+  </si>
+  <si>
+    <t>/paperless/not_enrolled_home_tile/not_enrolled_home_tile;release=r3</t>
+  </si>
+  <si>
+    <t>/paperless/enter_id_code/enter_id_code;release=r3</t>
+  </si>
+  <si>
+    <t>/paperless/edit_email/edit_email;release=r3</t>
+  </si>
+  <si>
+    <t>/paperless/cancel_paperless_nag/cancel_paperless_nag;release=r3</t>
+  </si>
+  <si>
+    <t>/mobileWallet/mobile_wallet_page/mobile_wallet_page;release=r3</t>
+  </si>
+  <si>
+    <t>/credit_limit_increase/credit_limit_increase_pending/credit_limit_increase_pending;release=r3</t>
+  </si>
+  <si>
+    <t>/credit_limit_increase/credit_limit_increase_info/credit_limit_increase_info;release=r3</t>
+  </si>
+  <si>
+    <t>/credit_limit_increase/credit_limit_increase_contextual_dashboard/credit_limit_increase_contextual_dashboard;release=r3</t>
+  </si>
+  <si>
+    <t>/commonAssets/brand_specific_common_icons/brand_specific_common_icons;release=r3</t>
+  </si>
+  <si>
+    <t>/card_lock_unlock/locked_state_success_alert/locked_state_success_alert;release=r3</t>
+  </si>
+  <si>
+    <t>/alerts_dialogs/brand_specific_common_dialogs_and_errors/brand_specific_common_dialogs_and_errors;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_your_profile_address_page/edit_your_profile_address_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_your_phone_number_confirmation_page/edit_your_phone_number_confirmation_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_your_name_confirmation_page/edit_your_name_confirmation_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_your_income_page/edit_your_income_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_your_email_confirmation_page/edit_your_email_confirmation_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_username_password_landing_page/edit_username_password_landing_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/edit_username_page/edit_username_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_design/card_design;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_alerts_update/card_alerts_update;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_alerts_manage/card_alerts_manage;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_alerts_landing/card_alerts_landing;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_alerts_history/card_alerts_history;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/card_activation_account_setting_page/card_activation_account_setting_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/biometric_details_page/biometric_details_page;release=r3</t>
+  </si>
+  <si>
+    <t>/accountSetting/account_assure/account_assure;release=r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Str21</t>
+  </si>
+  <si>
+    <t>Str22</t>
+  </si>
+  <si>
+    <t>Str23</t>
+  </si>
+  <si>
+    <t>Str24</t>
+  </si>
+  <si>
+    <t>Str25</t>
+  </si>
+  <si>
+    <t>Str26</t>
+  </si>
+  <si>
+    <t>Str27</t>
+  </si>
+  <si>
+    <t>Str28</t>
+  </si>
+  <si>
+    <t>Str29</t>
+  </si>
+  <si>
+    <t>Str30</t>
+  </si>
+  <si>
+    <t>Str31</t>
+  </si>
+  <si>
+    <t>Str32</t>
+  </si>
+  <si>
+    <t>Str33</t>
+  </si>
+  <si>
+    <t>Str34</t>
+  </si>
+  <si>
+    <t>Str35</t>
+  </si>
+  <si>
+    <t>Str36</t>
+  </si>
+  <si>
+    <t>Str37</t>
+  </si>
+  <si>
+    <t>Str38</t>
+  </si>
+  <si>
+    <t>Str39</t>
+  </si>
+  <si>
+    <t>Str40</t>
+  </si>
+  <si>
+    <t>Str41</t>
+  </si>
+  <si>
+    <t>Str42</t>
+  </si>
+  <si>
+    <t>Str43</t>
+  </si>
+  <si>
+    <t>Str44</t>
+  </si>
+  <si>
+    <t>Str45</t>
+  </si>
+  <si>
+    <t>Str46</t>
+  </si>
+  <si>
+    <t>Str47</t>
+  </si>
+  <si>
+    <t>Str48</t>
   </si>
 </sst>
 </file>
@@ -3060,16 +3348,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADB64FA-CFC9-4C41-A09B-B0F435261421}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="110.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3200,7 +3489,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3208,7 +3497,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3216,7 +3505,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>150</v>
       </c>
@@ -3224,7 +3513,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -3232,7 +3521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>154</v>
       </c>
@@ -3240,7 +3529,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>157</v>
       </c>
@@ -3248,7 +3537,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>158</v>
       </c>
@@ -3256,7 +3545,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>160</v>
       </c>
@@ -3264,7 +3553,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>162</v>
       </c>
@@ -3272,7 +3561,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>165</v>
       </c>
@@ -3280,7 +3569,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>168</v>
       </c>
@@ -3288,7 +3577,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>181</v>
       </c>
@@ -3296,7 +3585,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>182</v>
       </c>
@@ -3304,173 +3593,401 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2"/>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B31" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B32" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
+      <c r="A35" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
+      <c r="A36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
+      <c r="A37" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B38" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
+      <c r="A40" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
+      <c r="A41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
+      <c r="A42" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2"/>
+      <c r="A46" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B46" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2"/>
+      <c r="A47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2"/>
+      <c r="A49" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B50" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B52" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B55" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B56" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B57" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B58" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B59" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B61" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="1"/>
+      <c r="A64" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="1"/>
+      <c r="A65" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="1"/>
+      <c r="A66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="2"/>
+      <c r="A67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2"/>
+      <c r="A68" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B68" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="1"/>
+      <c r="A69" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="1"/>
+      <c r="A70" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="1"/>
+      <c r="A71" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="1"/>
+      <c r="A72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2"/>
+      <c r="A73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="2"/>
+      <c r="A74" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B74" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2"/>
+      <c r="A75" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B75" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2"/>
+      <c r="A76" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B76" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="5"/>
+      <c r="A77" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="2"/>
+      <c r="B79" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="2"/>

--- a/src/test/resources/brandsData.xlsx
+++ b/src/test/resources/brandsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\adobe Work\New folder\API-testing-framework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754D914-BDAA-471E-BB2E-8CEDE15E6E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF521430-087F-484D-8749-6DD8921867A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{61EF66B0-582B-4C5A-818C-0597B9B3C65F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{61EF66B0-582B-4C5A-818C-0597B9B3C65F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="311">
   <si>
     <t>brand_names</t>
   </si>
@@ -933,6 +933,45 @@
   </si>
   <si>
     <t>Str48</t>
+  </si>
+  <si>
+    <t>ashleystewart</t>
+  </si>
+  <si>
+    <t>gamestop</t>
+  </si>
+  <si>
+    <t>iddjewelry</t>
+  </si>
+  <si>
+    <t>littleswitzerland</t>
+  </si>
+  <si>
+    <t>michaels</t>
+  </si>
+  <si>
+    <t>midas</t>
+  </si>
+  <si>
+    <t>bigotiresandservice</t>
+  </si>
+  <si>
+    <t>childrensplace</t>
+  </si>
+  <si>
+    <t>beallsflorida</t>
+  </si>
+  <si>
+    <t>beallsoutlet</t>
+  </si>
+  <si>
+    <t>burkesoutlet</t>
+  </si>
+  <si>
+    <t>sportsmans</t>
+  </si>
+  <si>
+    <t>smilegeneration</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1055,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1026,6 +1065,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1362,20 +1404,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C221FCB1-3744-4921-9A45-04A01C3F5313}">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B152" sqref="B152"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,9 +1426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1396,9 +1439,12 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
@@ -1410,9 +1456,12 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B4" t="s">
@@ -1424,9 +1473,12 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
@@ -1438,9 +1490,12 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="H5" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -1452,9 +1507,12 @@
       <c r="D6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1466,9 +1524,12 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="H7" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" t="s">
@@ -1480,9 +1541,12 @@
       <c r="D8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="H8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
       <c r="B9" t="s">
@@ -1494,9 +1558,12 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="H9" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B10" t="s">
@@ -1508,9 +1575,12 @@
       <c r="D10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="H10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B11" t="s">
@@ -1522,9 +1592,12 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B12" t="s">
@@ -1536,9 +1609,12 @@
       <c r="D12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="H12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B13" t="s">
@@ -1550,9 +1626,12 @@
       <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="H13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B14" t="s">
@@ -1564,9 +1643,12 @@
       <c r="D14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="H14" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" t="s">
@@ -1578,9 +1660,12 @@
       <c r="D15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
+      <c r="H15" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B16" t="s">
@@ -1592,9 +1677,12 @@
       <c r="D16" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
+      <c r="H16" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B17" t="s">
@@ -1606,9 +1694,12 @@
       <c r="D17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
+      <c r="H17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B18" t="s">
@@ -1620,9 +1711,12 @@
       <c r="D18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
+      <c r="H18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B19" t="s">
@@ -1634,10 +1728,13 @@
       <c r="D19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>36</v>
+      <c r="H19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>31</v>
@@ -1648,10 +1745,13 @@
       <c r="D20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>37</v>
+      <c r="H20" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>32</v>
@@ -1662,10 +1762,13 @@
       <c r="D21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>38</v>
+      <c r="H21" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>33</v>
@@ -1676,10 +1779,13 @@
       <c r="D22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>39</v>
+      <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -1690,10 +1796,13 @@
       <c r="D23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>40</v>
+      <c r="H23" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -1704,10 +1813,13 @@
       <c r="D24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>41</v>
+      <c r="H24" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -1718,10 +1830,13 @@
       <c r="D25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>42</v>
+      <c r="H25" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -1732,10 +1847,13 @@
       <c r="D26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>43</v>
+      <c r="H26" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -1746,10 +1864,13 @@
       <c r="D27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>44</v>
+      <c r="H27" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -1760,10 +1881,13 @@
       <c r="D28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" t="s">
-        <v>45</v>
+      <c r="H28" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -1774,10 +1898,13 @@
       <c r="D29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>46</v>
+      <c r="H29" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -1788,10 +1915,13 @@
       <c r="D30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>47</v>
+      <c r="H30" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B31" t="s">
         <v>44</v>
@@ -1802,10 +1932,13 @@
       <c r="D31" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
-        <v>48</v>
+      <c r="H31" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1816,10 +1949,13 @@
       <c r="D32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>49</v>
+      <c r="H32" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>46</v>
@@ -1830,10 +1966,13 @@
       <c r="D33" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>20</v>
+      <c r="H33" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B34" t="s">
         <v>47</v>
@@ -1844,10 +1983,13 @@
       <c r="D34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>29</v>
+      <c r="H34" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>48</v>
@@ -1858,10 +2000,13 @@
       <c r="D35" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>30</v>
+      <c r="H35" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>49</v>
@@ -1872,9 +2017,12 @@
       <c r="D36" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="H36" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="6" t="s">
         <v>170</v>
       </c>
       <c r="B37" t="s">
@@ -1886,9 +2034,12 @@
       <c r="D37" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
+      <c r="H37" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1900,9 +2051,12 @@
       <c r="D38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="H38" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B39" t="s">
@@ -1914,9 +2068,12 @@
       <c r="D39" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
+      <c r="H39" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B40" t="s">
@@ -1928,9 +2085,12 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
+      <c r="H40" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B41" t="s">
@@ -1942,9 +2102,12 @@
       <c r="D41" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
+      <c r="H41" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B42" t="s">
@@ -1956,9 +2119,12 @@
       <c r="D42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
+      <c r="H42" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B43" t="s">
@@ -1970,9 +2136,12 @@
       <c r="D43" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
+      <c r="H43" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B44" t="s">
@@ -1984,9 +2153,12 @@
       <c r="D44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
+      <c r="H44" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B45" t="s">
@@ -1998,9 +2170,12 @@
       <c r="D45" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="H45" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B46" t="s">
@@ -2012,9 +2187,12 @@
       <c r="D46" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="H46" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B47" t="s">
@@ -2026,9 +2204,12 @@
       <c r="D47" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="H47" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B48" t="s">
@@ -2040,9 +2221,12 @@
       <c r="D48" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="H48" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B49" t="s">
@@ -2054,9 +2238,12 @@
       <c r="D49" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="H49" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B50" t="s">
@@ -2068,9 +2255,12 @@
       <c r="D50" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="H50" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B51" t="s">
@@ -2082,9 +2272,12 @@
       <c r="D51" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="H51" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B52" t="s">
@@ -2096,9 +2289,12 @@
       <c r="D52" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="H52" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B53" t="s">
@@ -2110,9 +2306,12 @@
       <c r="D53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="H53" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6" t="s">
         <v>69</v>
       </c>
       <c r="B54" t="s">
@@ -2124,9 +2323,12 @@
       <c r="D54" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="H54" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B55" t="s">
@@ -2138,9 +2340,12 @@
       <c r="D55" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="H55" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B56" t="s">
@@ -2152,9 +2357,12 @@
       <c r="D56" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="H56" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B57" t="s">
@@ -2166,9 +2374,12 @@
       <c r="D57" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="H57" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B58" t="s">
@@ -2180,9 +2391,12 @@
       <c r="D58" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="H58" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B59" t="s">
@@ -2194,9 +2408,12 @@
       <c r="D59" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="H59" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B60" t="s">
@@ -2208,9 +2425,12 @@
       <c r="D60" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="H60" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B61" t="s">
@@ -2222,9 +2442,12 @@
       <c r="D61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="H61" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B62" t="s">
@@ -2236,9 +2459,12 @@
       <c r="D62" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="H62" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B63" t="s">
@@ -2250,9 +2476,12 @@
       <c r="D63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
+      <c r="H63" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B64" t="s">
@@ -2264,9 +2493,12 @@
       <c r="D64" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
+      <c r="H64" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B65" t="s">
@@ -2278,9 +2510,12 @@
       <c r="D65" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
+      <c r="H65" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B66" t="s">
@@ -2292,9 +2527,12 @@
       <c r="D66" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
+      <c r="H66" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B67" t="s">
@@ -2306,9 +2544,12 @@
       <c r="D67" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="H67" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B68" t="s">
@@ -2320,9 +2561,12 @@
       <c r="D68" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="H68" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="6" t="s">
         <v>84</v>
       </c>
       <c r="B69" t="s">
@@ -2334,9 +2578,12 @@
       <c r="D69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
+      <c r="H69" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B70" t="s">
@@ -2348,9 +2595,12 @@
       <c r="D70" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
+      <c r="H70" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="6" t="s">
         <v>86</v>
       </c>
       <c r="B71" t="s">
@@ -2362,9 +2612,12 @@
       <c r="D71" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
+      <c r="H71" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B72" t="s">
@@ -2376,9 +2629,12 @@
       <c r="D72" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
+      <c r="H72" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B73" t="s">
@@ -2390,9 +2646,12 @@
       <c r="D73" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
+      <c r="H73" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B74" t="s">
@@ -2404,9 +2663,12 @@
       <c r="D74" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
+      <c r="H74" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B75" t="s">
@@ -2418,9 +2680,12 @@
       <c r="D75" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
+      <c r="H75" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B76" t="s">
@@ -2432,9 +2697,12 @@
       <c r="D76" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
+      <c r="H76" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B77" t="s">
@@ -2446,9 +2714,12 @@
       <c r="D77" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
+      <c r="H77" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B78" t="s">
@@ -2460,9 +2731,12 @@
       <c r="D78" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
+      <c r="H78" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B79" t="s">
@@ -2474,9 +2748,12 @@
       <c r="D79" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
+      <c r="H79" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B80" t="s">
@@ -2488,9 +2765,12 @@
       <c r="D80" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" t="s">
+      <c r="H80" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B81" t="s">
@@ -2502,9 +2782,12 @@
       <c r="D81" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" t="s">
+      <c r="H81" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B82" t="s">
@@ -2516,9 +2799,12 @@
       <c r="D82" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" t="s">
+      <c r="H82" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B83" t="s">
@@ -2530,9 +2816,12 @@
       <c r="D83" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" t="s">
+      <c r="H83" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B84" t="s">
@@ -2544,9 +2833,12 @@
       <c r="D84" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" t="s">
+      <c r="H84" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B85" t="s">
@@ -2558,9 +2850,12 @@
       <c r="D85" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" t="s">
+      <c r="H85" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="6" t="s">
         <v>101</v>
       </c>
       <c r="B86" t="s">
@@ -2572,9 +2867,12 @@
       <c r="D86" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" t="s">
+      <c r="H86" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B87" t="s">
@@ -2586,9 +2884,12 @@
       <c r="D87" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" t="s">
+      <c r="H87" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B88" t="s">
@@ -2600,9 +2901,12 @@
       <c r="D88" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" t="s">
+      <c r="H88" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B89" t="s">
@@ -2614,9 +2918,12 @@
       <c r="D89" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" t="s">
+      <c r="H89" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B90" t="s">
@@ -2628,9 +2935,12 @@
       <c r="D90" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" t="s">
+      <c r="H90" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B91" t="s">
@@ -2642,9 +2952,12 @@
       <c r="D91" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" t="s">
+      <c r="H91" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B92" t="s">
@@ -2656,9 +2969,12 @@
       <c r="D92" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" t="s">
+      <c r="H92" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B93" t="s">
@@ -2670,9 +2986,12 @@
       <c r="D93" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" t="s">
+      <c r="H93" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B94" t="s">
@@ -2684,9 +3003,12 @@
       <c r="D94" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" t="s">
+      <c r="H94" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B95" t="s">
@@ -2698,9 +3020,12 @@
       <c r="D95" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" t="s">
+      <c r="H95" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B96" t="s">
@@ -2712,9 +3037,12 @@
       <c r="D96" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" t="s">
+      <c r="H96" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B97" t="s">
@@ -2726,9 +3054,12 @@
       <c r="D97" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+      <c r="H97" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B98" t="s">
@@ -2740,9 +3071,12 @@
       <c r="D98" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" t="s">
+      <c r="H98" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B99" t="s">
@@ -2754,9 +3088,12 @@
       <c r="D99" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+      <c r="H99" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B100" t="s">
@@ -2768,9 +3105,12 @@
       <c r="D100" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" t="s">
+      <c r="H100" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="30">
+      <c r="A101" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B101" t="s">
@@ -2782,9 +3122,12 @@
       <c r="D101" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" t="s">
+      <c r="H101" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B102" t="s">
@@ -2796,9 +3139,12 @@
       <c r="D102" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" t="s">
+      <c r="H102" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B103" t="s">
@@ -2810,9 +3156,12 @@
       <c r="D103" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" t="s">
+      <c r="H103" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="6" t="s">
         <v>136</v>
       </c>
       <c r="B104" t="s">
@@ -2824,9 +3173,12 @@
       <c r="D104" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" t="s">
+      <c r="H104" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B105" t="s">
@@ -2838,9 +3190,12 @@
       <c r="D105" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" t="s">
+      <c r="H105" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B106" t="s">
@@ -2852,9 +3207,12 @@
       <c r="D106" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
+      <c r="H106" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B107" t="s">
@@ -2866,9 +3224,12 @@
       <c r="D107" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" t="s">
+      <c r="H107" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B108" t="s">
@@ -2880,9 +3241,12 @@
       <c r="D108" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
+      <c r="H108" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="6" t="s">
         <v>142</v>
       </c>
       <c r="B109" t="s">
@@ -2894,9 +3258,12 @@
       <c r="D109" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" t="s">
+      <c r="H109" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="6" t="s">
         <v>143</v>
       </c>
       <c r="B110" t="s">
@@ -2908,9 +3275,12 @@
       <c r="D110" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" t="s">
+      <c r="H110" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B111" t="s">
@@ -2922,9 +3292,12 @@
       <c r="D111" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" t="s">
+      <c r="H111" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="6" t="s">
         <v>145</v>
       </c>
       <c r="B112" t="s">
@@ -2936,9 +3309,12 @@
       <c r="D112" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" t="s">
+      <c r="H112" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B113" t="s">
@@ -2950,9 +3326,12 @@
       <c r="D113" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" t="s">
+      <c r="H113" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B114" t="s">
@@ -2964,9 +3343,12 @@
       <c r="D114" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" t="s">
+      <c r="H114" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B115" t="s">
@@ -2978,9 +3360,12 @@
       <c r="D115" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" t="s">
+      <c r="H115" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="6" t="s">
         <v>173</v>
       </c>
       <c r="B116" t="s">
@@ -2992,9 +3377,12 @@
       <c r="D116" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" t="s">
+      <c r="H116" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B117" t="s">
@@ -3006,9 +3394,12 @@
       <c r="D117" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" t="s">
+      <c r="H117" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B118" t="s">
@@ -3020,9 +3411,12 @@
       <c r="D118" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" t="s">
+      <c r="H118" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B119" t="s">
@@ -3034,9 +3428,12 @@
       <c r="D119" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" t="s">
+      <c r="H119" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B120" t="s">
@@ -3048,9 +3445,12 @@
       <c r="D120" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" t="s">
+      <c r="H120" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="6" t="s">
         <v>177</v>
       </c>
       <c r="B121" t="s">
@@ -3062,9 +3462,12 @@
       <c r="D121" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" t="s">
+      <c r="H121" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="6" t="s">
         <v>119</v>
       </c>
       <c r="C122" t="s">
@@ -3073,9 +3476,12 @@
       <c r="D122" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" t="s">
+      <c r="H122" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="6" t="s">
         <v>184</v>
       </c>
       <c r="C123" t="s">
@@ -3084,108 +3490,180 @@
       <c r="D123" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="H123" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="6" t="s">
+        <v>298</v>
+      </c>
       <c r="C124" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="H124" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="6" t="s">
+        <v>299</v>
+      </c>
       <c r="C125" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="H125" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="6" t="s">
+        <v>300</v>
+      </c>
       <c r="C126" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="H126" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="6" t="s">
+        <v>301</v>
+      </c>
       <c r="C127" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="H127" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128" s="6" t="s">
+        <v>302</v>
+      </c>
       <c r="C128" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="129" spans="3:3">
+      <c r="H128" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129" s="6" t="s">
+        <v>303</v>
+      </c>
       <c r="C129" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="130" spans="3:3">
+      <c r="H129" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="6" t="s">
+        <v>304</v>
+      </c>
       <c r="C130" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="131" spans="3:3">
+      <c r="H130" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" t="s">
+        <v>196</v>
+      </c>
       <c r="C131" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="1:8">
+      <c r="A132" t="s">
+        <v>305</v>
+      </c>
       <c r="C132" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="1:8">
+      <c r="A133" t="s">
+        <v>306</v>
+      </c>
       <c r="C133" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="1:8">
+      <c r="A134" t="s">
+        <v>307</v>
+      </c>
       <c r="C134" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="1:8">
+      <c r="A135" t="s">
+        <v>308</v>
+      </c>
       <c r="C135" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="1:8">
+      <c r="A136" t="s">
+        <v>196</v>
+      </c>
       <c r="C136" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="1:8">
+      <c r="A137" t="s">
+        <v>309</v>
+      </c>
       <c r="C137" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="1:8">
+      <c r="A138" t="s">
+        <v>197</v>
+      </c>
       <c r="C138" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>310</v>
+      </c>
       <c r="C139" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="1:8">
       <c r="C140" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="1:8">
       <c r="C141" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="1:8">
       <c r="C142" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="1:8">
       <c r="C143" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="1:8">
       <c r="C144" t="s">
         <v>199</v>
       </c>
@@ -3350,7 +3828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ADB64FA-CFC9-4C41-A09B-B0F435261421}">
   <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
